--- a/导表工具/W-王者争霸.xlsx
+++ b/导表工具/W-王者争霸.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" tabRatio="801"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常量配置" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="143">
   <si>
     <t>导出类型</t>
   </si>
@@ -1020,12 +1020,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1111,8 +1111,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1120,37 +1127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,16 +1140,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,22 +1178,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,14 +1210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,16 +1240,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1307,13 +1301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,13 +1349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,13 +1367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,37 +1409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,13 +1427,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,37 +1457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,18 +1482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,7 +1627,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,11 +1664,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1675,30 +1682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1726,153 +1709,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2060,7 +2054,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2383,7 +2377,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView topLeftCell="B5" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
@@ -2727,8 +2721,8 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/导表工具/W-王者争霸.xlsx
+++ b/导表工具/W-王者争霸.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="801" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" tabRatio="801"/>
   </bookViews>
   <sheets>
     <sheet name="常量配置" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>导出类型</t>
   </si>
@@ -1020,12 +1020,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1111,6 +1111,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1118,16 +1133,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,22 +1163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,31 +1195,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,6 +1218,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,26 +1256,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1301,31 +1307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,25 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,31 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,7 +1367,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,49 +1451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,6 +1476,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,22 +1633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,9 +1655,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1682,6 +1675,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,164 +1726,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2054,7 +2060,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2377,7 +2383,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
@@ -2721,8 +2727,8 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
